--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/CaLamViec_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/CaLamViec_Export_Template.xlsx
@@ -32,36 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>SoDienThoai</t>
-  </si>
-  <si>
-    <t>CanCuocCongDan</t>
-  </si>
-  <si>
-    <t>TenTinhThanh</t>
-  </si>
-  <si>
-    <t>NgayBatDauLamViec</t>
-  </si>
-  <si>
-    <t>MaNS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>Danh sách sổ quỹ</t>
   </si>
   <si>
     <t>Tên ca</t>
@@ -80,6 +53,9 @@
   </si>
   <si>
     <t>Tổng giờ công</t>
+  </si>
+  <si>
+    <t>Danh sách ca làm việc</t>
   </si>
 </sst>
 </file>
@@ -505,7 +481,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,35 +500,10 @@
     <col min="12" max="12" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="1" spans="1:90" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:90" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -601,25 +552,25 @@
     </row>
     <row r="4" spans="1:90" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
